--- a/plantilla_PCV.xlsx
+++ b/plantilla_PCV.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xalbgaray\Desktop\APP_FINAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Batch"/>
+    <sheet name="Batch" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Batch!$A$1:$I$2</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">Clase de pedido </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Organizacion de Venta</t>
   </si>
@@ -76,17 +78,22 @@
     <t>R200</t>
   </si>
   <si>
-    <t>CA</t>
+    <t>Pedido Cliente</t>
   </si>
   <si>
-    <t>R6</t>
+    <t>YNCR</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>E2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,7 +104,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -117,7 +124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFff0000"/>
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -131,16 +138,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -156,73 +163,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -233,10 +243,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -274,71 +284,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,7 +376,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -389,11 +399,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -402,13 +412,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -418,7 +428,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -427,7 +437,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -436,7 +446,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -444,10 +454,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -518,32 +528,26 @@
   </sheetPr>
   <dimension ref="A1:S163"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="17" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="18" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="19" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="18" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="15" width="58.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="5" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="58.140625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24">
+    <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,10 +573,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
       <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
@@ -595,96 +601,96 @@
         <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="10"/>
       <c r="M3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -705,7 +711,7 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -726,7 +732,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -747,7 +753,7 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -768,7 +774,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -789,7 +795,7 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -810,7 +816,7 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -831,7 +837,7 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -852,7 +858,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -873,7 +879,7 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -894,7 +900,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -915,7 +921,7 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -936,7 +942,7 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -957,7 +963,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="17" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -978,7 +984,7 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="18" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -999,7 +1005,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="19" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1020,7 +1026,7 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="20" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1041,7 +1047,7 @@
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="21" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1062,7 +1068,7 @@
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="22" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1083,7 +1089,7 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="23" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1104,7 +1110,7 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="24" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1125,7 +1131,7 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="25" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1146,7 +1152,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="26" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1167,7 +1173,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="27" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1188,7 +1194,7 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="28" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1209,7 +1215,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="29" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1230,7 +1236,7 @@
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="30" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1251,7 +1257,7 @@
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="31" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1272,7 +1278,7 @@
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="32" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1293,7 +1299,7 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="33" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1314,7 +1320,7 @@
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="34" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1335,7 +1341,7 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="35" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1356,7 +1362,7 @@
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="36" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1377,7 +1383,7 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="37" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1398,7 +1404,7 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="38" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1419,7 +1425,7 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="39" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1440,7 +1446,7 @@
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="40" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1461,7 +1467,7 @@
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="41" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1482,7 +1488,7 @@
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="42" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1503,7 +1509,7 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="43" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -1524,7 +1530,7 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="44" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1545,7 +1551,7 @@
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="45" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1566,7 +1572,7 @@
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="46" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1587,7 +1593,7 @@
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="47" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1608,7 +1614,7 @@
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="48" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1629,7 +1635,7 @@
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="49" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1650,7 +1656,7 @@
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="50" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1671,7 +1677,7 @@
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="51" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1692,7 +1698,7 @@
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="52" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -1713,7 +1719,7 @@
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="53" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1734,7 +1740,7 @@
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="54" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1755,7 +1761,7 @@
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="55" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -1776,7 +1782,7 @@
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="56" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -1797,7 +1803,7 @@
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="57" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -1818,7 +1824,7 @@
       <c r="R57" s="8"/>
       <c r="S57" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="58" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -1839,7 +1845,7 @@
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="59" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -1860,7 +1866,7 @@
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="60" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -1881,7 +1887,7 @@
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="61" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -1902,7 +1908,7 @@
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="62" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -1923,7 +1929,7 @@
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="63" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -1944,7 +1950,7 @@
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="64" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -1965,7 +1971,7 @@
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="65" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -1986,7 +1992,7 @@
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="66" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2007,7 +2013,7 @@
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="67" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -2028,7 +2034,7 @@
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="68" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -2049,7 +2055,7 @@
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="69" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -2070,7 +2076,7 @@
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="70" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -2091,7 +2097,7 @@
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="71" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -2112,7 +2118,7 @@
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="72" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -2133,7 +2139,7 @@
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="73" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -2154,7 +2160,7 @@
       <c r="R73" s="8"/>
       <c r="S73" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="74" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -2175,7 +2181,7 @@
       <c r="R74" s="8"/>
       <c r="S74" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="75" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -2196,7 +2202,7 @@
       <c r="R75" s="8"/>
       <c r="S75" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="76" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -2217,7 +2223,7 @@
       <c r="R76" s="8"/>
       <c r="S76" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="77" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -2238,7 +2244,7 @@
       <c r="R77" s="8"/>
       <c r="S77" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="78" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -2259,7 +2265,7 @@
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="79" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -2280,7 +2286,7 @@
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="80" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -2301,7 +2307,7 @@
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="81" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -2322,7 +2328,7 @@
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="82" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -2343,7 +2349,7 @@
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="83" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -2364,7 +2370,7 @@
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="84" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -2385,7 +2391,7 @@
       <c r="R84" s="8"/>
       <c r="S84" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="85" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -2406,7 +2412,7 @@
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="86" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -2427,7 +2433,7 @@
       <c r="R86" s="8"/>
       <c r="S86" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="87" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -2448,7 +2454,7 @@
       <c r="R87" s="8"/>
       <c r="S87" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="88" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -2469,7 +2475,7 @@
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="89" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -2490,7 +2496,7 @@
       <c r="R89" s="8"/>
       <c r="S89" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="90" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -2511,7 +2517,7 @@
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="91" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -2532,7 +2538,7 @@
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="92" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -2553,7 +2559,7 @@
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="93" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -2574,7 +2580,7 @@
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="94" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -2595,7 +2601,7 @@
       <c r="R94" s="8"/>
       <c r="S94" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="95" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -2616,7 +2622,7 @@
       <c r="R95" s="8"/>
       <c r="S95" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="96" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -2637,7 +2643,7 @@
       <c r="R96" s="8"/>
       <c r="S96" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="97" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -2658,7 +2664,7 @@
       <c r="R97" s="8"/>
       <c r="S97" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="98" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -2679,7 +2685,7 @@
       <c r="R98" s="8"/>
       <c r="S98" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="99" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -2700,7 +2706,7 @@
       <c r="R99" s="8"/>
       <c r="S99" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="100" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -2721,7 +2727,7 @@
       <c r="R100" s="8"/>
       <c r="S100" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="101" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -2742,7 +2748,7 @@
       <c r="R101" s="8"/>
       <c r="S101" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="102" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -2763,7 +2769,7 @@
       <c r="R102" s="8"/>
       <c r="S102" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="103" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -2784,7 +2790,7 @@
       <c r="R103" s="8"/>
       <c r="S103" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="104" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -2805,7 +2811,7 @@
       <c r="R104" s="8"/>
       <c r="S104" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="105" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -2826,7 +2832,7 @@
       <c r="R105" s="8"/>
       <c r="S105" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="106" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -2847,7 +2853,7 @@
       <c r="R106" s="8"/>
       <c r="S106" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="107" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -2868,7 +2874,7 @@
       <c r="R107" s="8"/>
       <c r="S107" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="108" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -2889,7 +2895,7 @@
       <c r="R108" s="8"/>
       <c r="S108" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="109" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -2910,7 +2916,7 @@
       <c r="R109" s="8"/>
       <c r="S109" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="110" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -2931,7 +2937,7 @@
       <c r="R110" s="8"/>
       <c r="S110" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="111" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -2952,7 +2958,7 @@
       <c r="R111" s="8"/>
       <c r="S111" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="112" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -2973,7 +2979,7 @@
       <c r="R112" s="8"/>
       <c r="S112" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="113" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -2994,7 +3000,7 @@
       <c r="R113" s="8"/>
       <c r="S113" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="114" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -3015,7 +3021,7 @@
       <c r="R114" s="8"/>
       <c r="S114" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="115" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -3036,7 +3042,7 @@
       <c r="R115" s="8"/>
       <c r="S115" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="116" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -3057,7 +3063,7 @@
       <c r="R116" s="8"/>
       <c r="S116" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="117" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -3078,7 +3084,7 @@
       <c r="R117" s="8"/>
       <c r="S117" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="118" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -3099,7 +3105,7 @@
       <c r="R118" s="8"/>
       <c r="S118" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="119" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -3120,7 +3126,7 @@
       <c r="R119" s="8"/>
       <c r="S119" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="120" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -3141,7 +3147,7 @@
       <c r="R120" s="8"/>
       <c r="S120" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="121" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -3162,7 +3168,7 @@
       <c r="R121" s="8"/>
       <c r="S121" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="122" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -3183,7 +3189,7 @@
       <c r="R122" s="8"/>
       <c r="S122" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="123" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -3204,7 +3210,7 @@
       <c r="R123" s="8"/>
       <c r="S123" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="124" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -3225,7 +3231,7 @@
       <c r="R124" s="8"/>
       <c r="S124" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="125" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -3246,7 +3252,7 @@
       <c r="R125" s="8"/>
       <c r="S125" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="126" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -3267,7 +3273,7 @@
       <c r="R126" s="8"/>
       <c r="S126" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="127" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -3288,7 +3294,7 @@
       <c r="R127" s="8"/>
       <c r="S127" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="128" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -3309,7 +3315,7 @@
       <c r="R128" s="8"/>
       <c r="S128" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="129" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -3330,7 +3336,7 @@
       <c r="R129" s="8"/>
       <c r="S129" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="130" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -3351,7 +3357,7 @@
       <c r="R130" s="8"/>
       <c r="S130" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="131" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -3372,7 +3378,7 @@
       <c r="R131" s="8"/>
       <c r="S131" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="132" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -3393,7 +3399,7 @@
       <c r="R132" s="8"/>
       <c r="S132" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="133" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -3414,7 +3420,7 @@
       <c r="R133" s="8"/>
       <c r="S133" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="134" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -3435,7 +3441,7 @@
       <c r="R134" s="8"/>
       <c r="S134" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="135" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -3456,7 +3462,7 @@
       <c r="R135" s="8"/>
       <c r="S135" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="136" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -3477,7 +3483,7 @@
       <c r="R136" s="8"/>
       <c r="S136" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="137" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -3498,7 +3504,7 @@
       <c r="R137" s="8"/>
       <c r="S137" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="138" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -3519,7 +3525,7 @@
       <c r="R138" s="8"/>
       <c r="S138" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="139" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -3540,7 +3546,7 @@
       <c r="R139" s="8"/>
       <c r="S139" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="140" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -3561,7 +3567,7 @@
       <c r="R140" s="8"/>
       <c r="S140" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="141" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -3582,7 +3588,7 @@
       <c r="R141" s="8"/>
       <c r="S141" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="142" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -3603,7 +3609,7 @@
       <c r="R142" s="8"/>
       <c r="S142" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="143" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -3624,7 +3630,7 @@
       <c r="R143" s="8"/>
       <c r="S143" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="144" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -3645,7 +3651,7 @@
       <c r="R144" s="8"/>
       <c r="S144" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="145" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -3666,7 +3672,7 @@
       <c r="R145" s="8"/>
       <c r="S145" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="146" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -3687,7 +3693,7 @@
       <c r="R146" s="8"/>
       <c r="S146" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="147" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -3708,7 +3714,7 @@
       <c r="R147" s="8"/>
       <c r="S147" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="148" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -3729,7 +3735,7 @@
       <c r="R148" s="8"/>
       <c r="S148" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="149" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -3750,7 +3756,7 @@
       <c r="R149" s="8"/>
       <c r="S149" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="150" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -3771,7 +3777,7 @@
       <c r="R150" s="8"/>
       <c r="S150" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="151" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -3792,7 +3798,7 @@
       <c r="R151" s="8"/>
       <c r="S151" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="152" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -3813,7 +3819,7 @@
       <c r="R152" s="8"/>
       <c r="S152" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="153" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -3834,7 +3840,7 @@
       <c r="R153" s="8"/>
       <c r="S153" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="154" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -3855,7 +3861,7 @@
       <c r="R154" s="8"/>
       <c r="S154" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="155" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -3876,7 +3882,7 @@
       <c r="R155" s="8"/>
       <c r="S155" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="156" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -3897,7 +3903,7 @@
       <c r="R156" s="8"/>
       <c r="S156" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="157" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -3918,7 +3924,7 @@
       <c r="R157" s="8"/>
       <c r="S157" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="158" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -3939,7 +3945,7 @@
       <c r="R158" s="8"/>
       <c r="S158" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="159" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -3960,7 +3966,7 @@
       <c r="R159" s="8"/>
       <c r="S159" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="160" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -3981,7 +3987,7 @@
       <c r="R160" s="8"/>
       <c r="S160" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="161" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -4002,7 +4008,7 @@
       <c r="R161" s="8"/>
       <c r="S161" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="162" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -4023,7 +4029,7 @@
       <c r="R162" s="8"/>
       <c r="S162" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row r="163" spans="1:19" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
